--- a/ConfigurationFiles/1-FA_Whitelist_TG-DG.xlsx
+++ b/ConfigurationFiles/1-FA_Whitelist_TG-DG.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{924C612F-5467-4839-BB68-304EFB803F9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="71">
   <si>
     <t>FattyAcid</t>
   </si>
@@ -227,12 +226,18 @@
   </si>
   <si>
     <t>FA25:0</t>
+  </si>
+  <si>
+    <t>FA25:1</t>
+  </si>
+  <si>
+    <t>FA25:2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,19 +548,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +583,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -598,7 +603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -618,7 +623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -638,7 +643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -658,7 +663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -678,7 +683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -698,7 +703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -718,7 +723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -738,7 +743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -758,7 +763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -778,7 +783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -798,7 +803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -818,7 +823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -838,7 +843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -858,7 +863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -878,7 +883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -898,7 +903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -918,7 +923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -938,7 +943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -958,7 +963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -981,7 +986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1001,7 +1006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1021,7 +1026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1041,7 +1046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1061,7 +1066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1081,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1173,7 +1178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1193,7 +1198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1213,7 +1218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -1253,7 +1258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1273,7 +1278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1293,7 +1298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1359,7 +1364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -1422,7 +1427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -1462,7 +1467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1485,7 +1490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +1513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +1533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1545,7 +1550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -1562,7 +1567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -1596,7 +1601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -1613,7 +1618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -1630,138 +1635,172 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>27</v>
       </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>39</v>
       </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>40</v>
       </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>12</v>
       </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>13</v>
       </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>14</v>
       </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>15</v>
       </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>16</v>
       </c>
-      <c r="B61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>17</v>
       </c>
-      <c r="B62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
         <v>18</v>
       </c>
     </row>
